--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_12_32.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_12_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2582724.531471204</v>
+        <v>2579860.653858438</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283191</v>
       </c>
     </row>
     <row r="9">
@@ -671,16 +671,16 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>18.92112911249622</v>
+        <v>15.21022140383137</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>33.93991247395533</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.097100052852174</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -710,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>7.808007761517025</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>33.93991247395533</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -738,55 +738,55 @@
         <v>33.93991247395533</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>29.89427490705984</v>
+      </c>
+      <c r="S3" t="n">
         <v>33.93991247395533</v>
-      </c>
-      <c r="D3" t="n">
-        <v>29.89427490705985</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -835,38 +835,38 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>29.89427490705984</v>
+      </c>
+      <c r="R4" t="n">
         <v>33.93991247395533</v>
       </c>
-      <c r="J4" t="n">
+      <c r="S4" t="n">
         <v>33.93991247395533</v>
       </c>
-      <c r="K4" t="n">
-        <v>17.44799951871617</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>12.44627538834367</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>33.93991247395533</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -905,7 +905,7 @@
         <v>38.48106384277808</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>18.73217250539946</v>
       </c>
       <c r="G5" t="n">
         <v>15.16194852731947</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
         <v>38.48106384277808</v>
       </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
       <c r="T5" t="n">
-        <v>11.85612676368803</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
         <v>38.48106384277808</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -975,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>33.89412103271894</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1026,16 +1026,16 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
         <v>38.48106384277808</v>
-      </c>
-      <c r="W6" t="n">
-        <v>33.89412103271894</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1057,70 +1057,70 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
         <v>38.48106384277808</v>
       </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>18.96187038700693</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
+      <c r="U7" t="n">
         <v>38.48106384277808</v>
       </c>
-      <c r="K7" t="n">
-        <v>14.93225064571201</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
         <v>38.48106384277808</v>
       </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>33.89412103271894</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>175.3318063516151</v>
+        <v>175.3318063516148</v>
       </c>
       <c r="C8" t="n">
-        <v>175.3318063516151</v>
+        <v>106.3063634540539</v>
       </c>
       <c r="D8" t="n">
-        <v>175.3318063516151</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1148,10 +1148,10 @@
         <v>13.74888350366828</v>
       </c>
       <c r="H8" t="n">
-        <v>81.54548989577285</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>150.5709327933333</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>52.26183589335002</v>
+        <v>52.26183589335024</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>175.3318063516148</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1209,16 +1209,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1257,19 +1257,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>48.53902377671866</v>
       </c>
       <c r="S9" t="n">
-        <v>36.09584543112508</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>175.3318063516148</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>175.3318063516148</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>105.8932312577837</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>175.3318063516148</v>
       </c>
     </row>
     <row r="10">
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>27.79734426348809</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1342,19 +1342,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>175.3318063516148</v>
       </c>
       <c r="U10" t="n">
-        <v>126.6349107710145</v>
+        <v>154.4322550345023</v>
       </c>
       <c r="V10" t="n">
-        <v>175.3318063516151</v>
+        <v>175.3318063516148</v>
       </c>
       <c r="W10" t="n">
-        <v>175.3318063516151</v>
+        <v>175.3318063516148</v>
       </c>
       <c r="X10" t="n">
-        <v>175.3318063516151</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1376,13 +1376,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>276.1969248537256</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1780,7 +1780,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,10 +1813,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>194.7686697604218</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>155.2162996298073</v>
       </c>
     </row>
     <row r="17">
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>65.99480013030499</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2059,7 +2059,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>28.75188085811999</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2318,7 +2318,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2375,7 +2375,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>42.71572132711237</v>
       </c>
       <c r="D25" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>20.88994825141581</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2789,25 +2789,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695517</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576159</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701318</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>110.0177171766887</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462237</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012154</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.709655389037</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520946</v>
+        <v>153.2646806878225</v>
       </c>
     </row>
     <row r="32">
@@ -3026,16 +3026,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3077,16 +3077,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695523</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701338</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3184,16 +3184,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>122.6028762599951</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3202,7 +3202,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>173.8476477102227</v>
       </c>
     </row>
     <row r="35">
@@ -3424,25 +3424,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>110.0177171766856</v>
+        <v>39.52129633183119</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695516</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576159</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784671</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428467</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012154</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.709655389037</v>
+        <v>22.04658882052573</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695517</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576159</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3834,7 +3834,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3895,13 +3895,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3910,10 +3910,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922687</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428422</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012156</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3989,10 +3989,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444115</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4071,7 +4071,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4141,16 +4141,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>136.5667167289874</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428172</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>67.19417015045701</v>
+        <v>25.02455375098997</v>
       </c>
       <c r="C2" t="n">
-        <v>67.19417015045701</v>
+        <v>25.02455375098997</v>
       </c>
       <c r="D2" t="n">
-        <v>67.19417015045701</v>
+        <v>25.02455375098997</v>
       </c>
       <c r="E2" t="n">
-        <v>67.19417015045701</v>
+        <v>25.02455375098997</v>
       </c>
       <c r="F2" t="n">
-        <v>60.24866940125354</v>
+        <v>18.0790530017865</v>
       </c>
       <c r="G2" t="n">
-        <v>41.13641777246947</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="H2" t="n">
-        <v>41.13641777246947</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="I2" t="n">
-        <v>6.853677899787311</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="J2" t="n">
         <v>2.715192997916426</v>
@@ -4334,16 +4334,16 @@
         <v>36.31570634713221</v>
       </c>
       <c r="L2" t="n">
+        <v>36.31570634713221</v>
+      </c>
+      <c r="M2" t="n">
+        <v>36.31570634713221</v>
+      </c>
+      <c r="N2" t="n">
         <v>69.91621969634798</v>
       </c>
-      <c r="M2" t="n">
-        <v>103.5167330455638</v>
-      </c>
-      <c r="N2" t="n">
-        <v>135.7596498958213</v>
-      </c>
       <c r="O2" t="n">
-        <v>135.7596498958213</v>
+        <v>102.1591365466055</v>
       </c>
       <c r="P2" t="n">
         <v>135.7596498958213</v>
@@ -4358,22 +4358,22 @@
         <v>101.4769100231392</v>
       </c>
       <c r="T2" t="n">
-        <v>101.4769100231392</v>
+        <v>93.59003349635429</v>
       </c>
       <c r="U2" t="n">
-        <v>101.4769100231392</v>
+        <v>59.30729362367213</v>
       </c>
       <c r="V2" t="n">
-        <v>101.4769100231392</v>
+        <v>25.02455375098997</v>
       </c>
       <c r="W2" t="n">
-        <v>101.4769100231392</v>
+        <v>25.02455375098997</v>
       </c>
       <c r="X2" t="n">
-        <v>101.4769100231392</v>
+        <v>25.02455375098997</v>
       </c>
       <c r="Y2" t="n">
-        <v>67.19417015045701</v>
+        <v>25.02455375098997</v>
       </c>
     </row>
     <row r="3">
@@ -4383,10 +4383,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>67.19417015045701</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="C3" t="n">
-        <v>32.91143027777485</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="D3" t="n">
         <v>2.715192997916426</v>
@@ -4407,52 +4407,52 @@
         <v>2.715192997916426</v>
       </c>
       <c r="J3" t="n">
-        <v>2.715192997916426</v>
+        <v>6.606010638615182</v>
       </c>
       <c r="K3" t="n">
-        <v>36.31570634713221</v>
+        <v>34.95810984817397</v>
       </c>
       <c r="L3" t="n">
-        <v>69.91621969634798</v>
+        <v>34.95810984817397</v>
       </c>
       <c r="M3" t="n">
-        <v>69.91621969634798</v>
+        <v>68.55862319738975</v>
       </c>
       <c r="N3" t="n">
-        <v>69.91621969634798</v>
+        <v>68.55862319738975</v>
       </c>
       <c r="O3" t="n">
-        <v>69.91621969634798</v>
+        <v>68.55862319738975</v>
       </c>
       <c r="P3" t="n">
-        <v>103.5167330455638</v>
+        <v>102.1591365466055</v>
       </c>
       <c r="Q3" t="n">
         <v>135.7596498958213</v>
       </c>
       <c r="R3" t="n">
-        <v>135.7596498958213</v>
+        <v>105.5634126159629</v>
       </c>
       <c r="S3" t="n">
-        <v>135.7596498958213</v>
+        <v>71.28067274328075</v>
       </c>
       <c r="T3" t="n">
-        <v>135.7596498958213</v>
+        <v>71.28067274328075</v>
       </c>
       <c r="U3" t="n">
-        <v>135.7596498958213</v>
+        <v>71.28067274328075</v>
       </c>
       <c r="V3" t="n">
-        <v>135.7596498958213</v>
+        <v>71.28067274328075</v>
       </c>
       <c r="W3" t="n">
-        <v>101.4769100231392</v>
+        <v>36.99793287059858</v>
       </c>
       <c r="X3" t="n">
-        <v>101.4769100231392</v>
+        <v>36.99793287059858</v>
       </c>
       <c r="Y3" t="n">
-        <v>101.4769100231392</v>
+        <v>36.99793287059858</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>88.90491468137789</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="C4" t="n">
-        <v>88.90491468137789</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="D4" t="n">
-        <v>88.90491468137789</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="E4" t="n">
-        <v>88.90491468137789</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="F4" t="n">
-        <v>88.90491468137789</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="G4" t="n">
-        <v>88.90491468137789</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="H4" t="n">
-        <v>88.90491468137789</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="I4" t="n">
-        <v>54.62217480869573</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="J4" t="n">
-        <v>20.33943493601357</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="K4" t="n">
         <v>2.715192997916426</v>
@@ -4507,31 +4507,31 @@
         <v>135.7596498958213</v>
       </c>
       <c r="Q4" t="n">
-        <v>123.18765455406</v>
+        <v>105.5634126159629</v>
       </c>
       <c r="R4" t="n">
-        <v>123.18765455406</v>
+        <v>71.28067274328075</v>
       </c>
       <c r="S4" t="n">
-        <v>123.18765455406</v>
+        <v>36.99793287059858</v>
       </c>
       <c r="T4" t="n">
-        <v>123.18765455406</v>
+        <v>36.99793287059858</v>
       </c>
       <c r="U4" t="n">
-        <v>123.18765455406</v>
+        <v>36.99793287059858</v>
       </c>
       <c r="V4" t="n">
-        <v>123.18765455406</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="W4" t="n">
-        <v>123.18765455406</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="X4" t="n">
-        <v>123.18765455406</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="Y4" t="n">
-        <v>88.90491468137789</v>
+        <v>2.715192997916426</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>64.20884683652224</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="C5" t="n">
-        <v>64.20884683652224</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="D5" t="n">
-        <v>64.20884683652224</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="E5" t="n">
-        <v>25.33908537917064</v>
+        <v>37.31497099905754</v>
       </c>
       <c r="F5" t="n">
         <v>18.39358462996717</v>
@@ -4568,49 +4568,49 @@
         <v>3.078485107422247</v>
       </c>
       <c r="K5" t="n">
-        <v>41.17473831177255</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="L5" t="n">
-        <v>79.27099151612285</v>
+        <v>34.47469744057084</v>
       </c>
       <c r="M5" t="n">
-        <v>79.27099151612285</v>
+        <v>72.57095064492114</v>
       </c>
       <c r="N5" t="n">
-        <v>79.27099151612285</v>
+        <v>110.6672038492714</v>
       </c>
       <c r="O5" t="n">
-        <v>117.3672447204732</v>
+        <v>110.6672038492714</v>
       </c>
       <c r="P5" t="n">
-        <v>153.9242553711123</v>
+        <v>148.7634570536217</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9242553711123</v>
       </c>
       <c r="R5" t="n">
-        <v>115.0544939137607</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="S5" t="n">
         <v>115.0544939137607</v>
       </c>
       <c r="T5" t="n">
-        <v>103.0786082938738</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="U5" t="n">
-        <v>103.0786082938738</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="V5" t="n">
-        <v>64.20884683652224</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="W5" t="n">
-        <v>64.20884683652224</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="X5" t="n">
-        <v>64.20884683652224</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="Y5" t="n">
-        <v>64.20884683652224</v>
+        <v>76.18473245640914</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>41.94824656477385</v>
+        <v>37.31497099905754</v>
       </c>
       <c r="C6" t="n">
-        <v>41.94824656477385</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="D6" t="n">
-        <v>41.94824656477385</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="E6" t="n">
-        <v>41.94824656477385</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="F6" t="n">
-        <v>41.94824656477385</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="G6" t="n">
-        <v>41.94824656477385</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="H6" t="n">
-        <v>41.94824656477385</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="I6" t="n">
         <v>3.078485107422247</v>
       </c>
       <c r="J6" t="n">
-        <v>3.078485107422247</v>
+        <v>9.385105424419159</v>
       </c>
       <c r="K6" t="n">
-        <v>39.63549575806142</v>
+        <v>47.48135862876946</v>
       </c>
       <c r="L6" t="n">
-        <v>39.63549575806142</v>
+        <v>47.48135862876946</v>
       </c>
       <c r="M6" t="n">
-        <v>39.63549575806142</v>
+        <v>85.57761183311976</v>
       </c>
       <c r="N6" t="n">
-        <v>39.63549575806142</v>
+        <v>115.828002166762</v>
       </c>
       <c r="O6" t="n">
-        <v>77.73174896241173</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="P6" t="n">
-        <v>115.828002166762</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="Q6" t="n">
         <v>153.9242553711123</v>
@@ -4674,22 +4674,22 @@
         <v>115.0544939137607</v>
       </c>
       <c r="T6" t="n">
-        <v>115.0544939137607</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="U6" t="n">
-        <v>115.0544939137607</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="V6" t="n">
         <v>76.18473245640914</v>
       </c>
       <c r="W6" t="n">
-        <v>41.94824656477385</v>
+        <v>37.31497099905754</v>
       </c>
       <c r="X6" t="n">
-        <v>41.94824656477385</v>
+        <v>37.31497099905754</v>
       </c>
       <c r="Y6" t="n">
-        <v>41.94824656477385</v>
+        <v>37.31497099905754</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>115.0544939137607</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="C7" t="n">
-        <v>115.0544939137607</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="D7" t="n">
-        <v>76.18473245640914</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="E7" t="n">
-        <v>76.18473245640914</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="F7" t="n">
-        <v>76.18473245640914</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="G7" t="n">
-        <v>57.03132802508901</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="H7" t="n">
-        <v>57.03132802508901</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="I7" t="n">
-        <v>57.03132802508901</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="J7" t="n">
-        <v>18.16156656773741</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="K7" t="n">
         <v>3.078485107422247</v>
@@ -4744,31 +4744,31 @@
         <v>153.9242553711123</v>
       </c>
       <c r="Q7" t="n">
-        <v>115.0544939137607</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="R7" t="n">
-        <v>115.0544939137607</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="S7" t="n">
-        <v>115.0544939137607</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="T7" t="n">
         <v>115.0544939137607</v>
       </c>
       <c r="U7" t="n">
-        <v>115.0544939137607</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="V7" t="n">
-        <v>115.0544939137607</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="W7" t="n">
-        <v>115.0544939137607</v>
+        <v>37.31497099905754</v>
       </c>
       <c r="X7" t="n">
-        <v>115.0544939137607</v>
+        <v>37.31497099905754</v>
       </c>
       <c r="Y7" t="n">
-        <v>115.0544939137607</v>
+        <v>3.078485107422247</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>471.4346574822532</v>
+        <v>294.3318227836513</v>
       </c>
       <c r="C8" t="n">
-        <v>294.3318227836521</v>
+        <v>186.9516576785463</v>
       </c>
       <c r="D8" t="n">
-        <v>117.228988085051</v>
+        <v>186.9516576785463</v>
       </c>
       <c r="E8" t="n">
-        <v>117.228988085051</v>
+        <v>186.9516576785463</v>
       </c>
       <c r="F8" t="n">
-        <v>110.2834873358475</v>
+        <v>180.0061569293429</v>
       </c>
       <c r="G8" t="n">
-        <v>96.39572622103107</v>
+        <v>166.1183958145264</v>
       </c>
       <c r="H8" t="n">
-        <v>14.02654450812921</v>
+        <v>166.1183958145264</v>
       </c>
       <c r="I8" t="n">
-        <v>14.02654450812921</v>
+        <v>14.02654450812919</v>
       </c>
       <c r="J8" t="n">
-        <v>132.7593507837335</v>
+        <v>14.02654450812919</v>
       </c>
       <c r="K8" t="n">
-        <v>132.7593507837335</v>
+        <v>187.6050327962278</v>
       </c>
       <c r="L8" t="n">
-        <v>306.3378390718325</v>
+        <v>196.9540007213373</v>
       </c>
       <c r="M8" t="n">
-        <v>466.3390888241687</v>
+        <v>354.1702488302619</v>
       </c>
       <c r="N8" t="n">
-        <v>513.7056312055781</v>
+        <v>527.7487371183606</v>
       </c>
       <c r="O8" t="n">
-        <v>545.0972527718852</v>
+        <v>701.3272254064593</v>
       </c>
       <c r="P8" t="n">
-        <v>545.0972527718852</v>
+        <v>701.3272254064593</v>
       </c>
       <c r="Q8" t="n">
-        <v>701.3272254064605</v>
+        <v>701.3272254064593</v>
       </c>
       <c r="R8" t="n">
-        <v>648.5374921808543</v>
+        <v>648.5374921808531</v>
       </c>
       <c r="S8" t="n">
-        <v>648.5374921808543</v>
+        <v>648.5374921808531</v>
       </c>
       <c r="T8" t="n">
-        <v>648.5374921808543</v>
+        <v>648.5374921808531</v>
       </c>
       <c r="U8" t="n">
-        <v>648.5374921808543</v>
+        <v>648.5374921808531</v>
       </c>
       <c r="V8" t="n">
-        <v>648.5374921808543</v>
+        <v>648.5374921808531</v>
       </c>
       <c r="W8" t="n">
-        <v>648.5374921808543</v>
+        <v>471.4346574822522</v>
       </c>
       <c r="X8" t="n">
-        <v>648.5374921808543</v>
+        <v>471.4346574822522</v>
       </c>
       <c r="Y8" t="n">
-        <v>648.5374921808543</v>
+        <v>471.4346574822522</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>496.651438455963</v>
+        <v>14.02654450812919</v>
       </c>
       <c r="C9" t="n">
-        <v>322.198409174836</v>
+        <v>14.02654450812919</v>
       </c>
       <c r="D9" t="n">
-        <v>173.2639995135847</v>
+        <v>14.02654450812919</v>
       </c>
       <c r="E9" t="n">
-        <v>14.02654450812921</v>
+        <v>14.02654450812919</v>
       </c>
       <c r="F9" t="n">
-        <v>14.02654450812921</v>
+        <v>14.02654450812919</v>
       </c>
       <c r="G9" t="n">
-        <v>14.02654450812921</v>
+        <v>14.02654450812919</v>
       </c>
       <c r="H9" t="n">
-        <v>14.02654450812921</v>
+        <v>14.02654450812919</v>
       </c>
       <c r="I9" t="n">
-        <v>14.02654450812921</v>
+        <v>14.02654450812919</v>
       </c>
       <c r="J9" t="n">
-        <v>14.02654450812921</v>
+        <v>14.02654450812919</v>
       </c>
       <c r="K9" t="n">
-        <v>187.6050327962282</v>
+        <v>14.02654450812919</v>
       </c>
       <c r="L9" t="n">
-        <v>296.6798924178191</v>
+        <v>187.6050327962278</v>
       </c>
       <c r="M9" t="n">
-        <v>364.5147043918865</v>
+        <v>270.1314063162767</v>
       </c>
       <c r="N9" t="n">
-        <v>448.5535469058722</v>
+        <v>354.1702488302619</v>
       </c>
       <c r="O9" t="n">
-        <v>503.2128742869228</v>
+        <v>527.7487371183606</v>
       </c>
       <c r="P9" t="n">
-        <v>527.7487371183615</v>
+        <v>701.3272254064593</v>
       </c>
       <c r="Q9" t="n">
-        <v>701.3272254064605</v>
+        <v>701.3272254064593</v>
       </c>
       <c r="R9" t="n">
-        <v>701.3272254064605</v>
+        <v>652.2979084602789</v>
       </c>
       <c r="S9" t="n">
-        <v>664.8667754760311</v>
+        <v>652.2979084602789</v>
       </c>
       <c r="T9" t="n">
-        <v>664.8667754760311</v>
+        <v>475.195073761678</v>
       </c>
       <c r="U9" t="n">
-        <v>664.8667754760311</v>
+        <v>298.0922390630772</v>
       </c>
       <c r="V9" t="n">
-        <v>664.8667754760311</v>
+        <v>191.12937920673</v>
       </c>
       <c r="W9" t="n">
-        <v>664.8667754760311</v>
+        <v>191.12937920673</v>
       </c>
       <c r="X9" t="n">
-        <v>664.8667754760311</v>
+        <v>191.12937920673</v>
       </c>
       <c r="Y9" t="n">
-        <v>664.8667754760311</v>
+        <v>14.02654450812919</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14.02654450812921</v>
+        <v>14.02654450812919</v>
       </c>
       <c r="C10" t="n">
-        <v>14.02654450812921</v>
+        <v>14.02654450812919</v>
       </c>
       <c r="D10" t="n">
-        <v>14.02654450812921</v>
+        <v>14.02654450812919</v>
       </c>
       <c r="E10" t="n">
-        <v>14.02654450812921</v>
+        <v>14.02654450812919</v>
       </c>
       <c r="F10" t="n">
-        <v>14.02654450812921</v>
+        <v>14.02654450812919</v>
       </c>
       <c r="G10" t="n">
-        <v>14.02654450812921</v>
+        <v>14.02654450812919</v>
       </c>
       <c r="H10" t="n">
-        <v>14.02654450812921</v>
+        <v>14.02654450812919</v>
       </c>
       <c r="I10" t="n">
-        <v>14.02654450812921</v>
+        <v>14.02654450812919</v>
       </c>
       <c r="J10" t="n">
-        <v>14.02654450812921</v>
+        <v>14.02654450812919</v>
       </c>
       <c r="K10" t="n">
-        <v>72.14931057288425</v>
+        <v>72.14931057288413</v>
       </c>
       <c r="L10" t="n">
-        <v>202.0528747707606</v>
+        <v>202.0528747707602</v>
       </c>
       <c r="M10" t="n">
-        <v>349.4070924882356</v>
+        <v>349.4070924882351</v>
       </c>
       <c r="N10" t="n">
-        <v>498.6921726831131</v>
+        <v>498.6921726831123</v>
       </c>
       <c r="O10" t="n">
-        <v>620.5648112189945</v>
+        <v>620.5648112189934</v>
       </c>
       <c r="P10" t="n">
-        <v>701.3272254064605</v>
+        <v>701.3272254064593</v>
       </c>
       <c r="Q10" t="n">
-        <v>673.2490998877856</v>
+        <v>701.3272254064593</v>
       </c>
       <c r="R10" t="n">
-        <v>673.2490998877856</v>
+        <v>701.3272254064593</v>
       </c>
       <c r="S10" t="n">
-        <v>673.2490998877856</v>
+        <v>701.3272254064593</v>
       </c>
       <c r="T10" t="n">
-        <v>673.2490998877856</v>
+        <v>524.2243907078584</v>
       </c>
       <c r="U10" t="n">
-        <v>545.3350486039326</v>
+        <v>368.2322139053309</v>
       </c>
       <c r="V10" t="n">
-        <v>368.2322139053315</v>
+        <v>191.12937920673</v>
       </c>
       <c r="W10" t="n">
-        <v>191.1293792067303</v>
+        <v>14.02654450812919</v>
       </c>
       <c r="X10" t="n">
-        <v>14.02654450812921</v>
+        <v>14.02654450812919</v>
       </c>
       <c r="Y10" t="n">
-        <v>14.02654450812921</v>
+        <v>14.02654450812919</v>
       </c>
     </row>
     <row r="11">
@@ -5024,10 +5024,10 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5036,13 +5036,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5054,10 +5054,10 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452613</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718132</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>705.9324428257312</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G13" t="n">
         <v>93.81666304797187</v>
@@ -5197,52 +5197,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1154.714572867279</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>926.7250219692613</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>705.9324428257312</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5258,10 +5258,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5273,13 +5273,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5291,7 +5291,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5355,28 +5355,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>719.5738700011939</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C16" t="n">
-        <v>550.637687073287</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D16" t="n">
-        <v>550.637687073287</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5461,25 +5461,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2183.181349771631</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1894.106123115829</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1639.421634909942</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1350.004464872981</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1122.014913974964</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>901.2223348314336</v>
+        <v>759.5105036736317</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,7 +5501,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5528,7 +5528,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5546,16 +5546,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5595,22 +5595,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>251.562654109227</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N18" t="n">
-        <v>1670.092171589158</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O18" t="n">
-        <v>2222.001901828445</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1018.438627038651</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>849.5024441107445</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>699.3858046984087</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E19" t="n">
-        <v>551.4727111160156</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1938.286391947399</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1648.869221910438</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1420.879671012421</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1200.087091868891</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5729,70 +5729,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,28 +5823,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>680.0291294438176</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P21" t="n">
         <v>2283.159972732779</v>
@@ -5887,25 +5887,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578603</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5984,13 +5984,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M24" t="n">
-        <v>923.0670414349511</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N24" t="n">
-        <v>1550.665004989558</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>2102.574735228845</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2526.197884723913</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6124,22 +6124,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D25" t="n">
-        <v>261.0127623330919</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E25" t="n">
-        <v>261.0127623330919</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6203,7 +6203,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6215,7 +6215,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6263,10 +6263,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,28 +6300,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>579.1554649516142</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6364,19 +6364,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>261.0127623330919</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6443,70 +6443,70 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168608</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797179</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192586</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111675</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075767</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332383</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014775</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355933</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068005</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694702</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852251</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398589</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492573</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.25260147478</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.81249946657</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6528,40 +6528,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797179</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273895</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L30" t="n">
-        <v>579.1554649516142</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M30" t="n">
-        <v>1176.533952578166</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>1804.131916132773</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2356.04164637206</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400739</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908934</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908934</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908934</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908934</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057735</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797179</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797179</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797748</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487569</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.46108051051</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854708</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648821</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611861</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138435</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703136</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="32">
@@ -6686,52 +6686,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
         <v>3820.749612123002</v>
@@ -6771,25 +6771,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797186</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O33" t="n">
         <v>1859.536823237711</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6901,7 +6901,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>740.6909601580605</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,25 +6932,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M36" t="n">
-        <v>1176.533952578166</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N36" t="n">
-        <v>1804.131916132773</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O36" t="n">
-        <v>2356.04164637206</v>
+        <v>1870.702844468417</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2294.325993963485</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7072,22 +7072,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004712</v>
@@ -7160,22 +7160,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168608</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7196,16 +7196,16 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123002</v>
@@ -7214,10 +7214,10 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7239,40 +7239,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G39" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797183</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797183</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797183</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745237</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400739</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121672</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121672</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121672</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121672</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270473</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797748</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.46108051051</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854708</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648821</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611861</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138435</v>
+        <v>1122.014913974964</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703136</v>
+        <v>901.2223348314336</v>
       </c>
     </row>
     <row r="41">
@@ -7400,52 +7400,52 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192588</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111713</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
         <v>3467.980956852888</v>
@@ -7454,7 +7454,7 @@
         <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7482,25 +7482,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797183</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797183</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797183</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438179</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O42" t="n">
         <v>1859.536823237711</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400735</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121667</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121667</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121667</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121667</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270468</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648821</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.28419561186</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.294644713843</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703131</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406466</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168588</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362663</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7719,28 +7719,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797183</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797183</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797183</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438179</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P45" t="n">
         <v>2283.159972732779</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>378.6527890600109</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>231.7628415621006</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7982,19 +7982,19 @@
         <v>242.2613672256909</v>
       </c>
       <c r="L2" t="n">
-        <v>255.1065912093878</v>
+        <v>221.1666787354324</v>
       </c>
       <c r="M2" t="n">
-        <v>248.0411260722765</v>
+        <v>214.1012135983212</v>
       </c>
       <c r="N2" t="n">
-        <v>245.4737854454458</v>
+        <v>246.8450950403531</v>
       </c>
       <c r="O2" t="n">
-        <v>214.5102874732696</v>
+        <v>247.0788903523176</v>
       </c>
       <c r="P2" t="n">
-        <v>217.9290633046618</v>
+        <v>251.8689757786171</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8055,16 +8055,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>122.1609165114202</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>163.7881088975641</v>
+        <v>158.4866804736682</v>
       </c>
       <c r="L3" t="n">
-        <v>161.7463912169474</v>
+        <v>127.8064787429921</v>
       </c>
       <c r="M3" t="n">
-        <v>129.5917403577182</v>
+        <v>163.5316528316735</v>
       </c>
       <c r="N3" t="n">
         <v>118.4674613291454</v>
@@ -8076,7 +8076,7 @@
         <v>158.4618986107626</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.231683665859</v>
+        <v>167.6029932607663</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8216,25 +8216,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>240.6620276789126</v>
+        <v>202.1809638361346</v>
       </c>
       <c r="L5" t="n">
-        <v>252.0299206180583</v>
+        <v>245.2622025663394</v>
       </c>
       <c r="M5" t="n">
-        <v>205.6249188705004</v>
+        <v>244.1059827132785</v>
       </c>
       <c r="N5" t="n">
-        <v>204.2917325281876</v>
+        <v>242.7727963709657</v>
       </c>
       <c r="O5" t="n">
-        <v>244.8579146936526</v>
+        <v>206.3768508508745</v>
       </c>
       <c r="P5" t="n">
-        <v>247.9136367056385</v>
+        <v>249.4684271639326</v>
       </c>
       <c r="Q5" t="n">
-        <v>207.1020630664798</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,28 +8292,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>119.7207117878867</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>162.6037712654842</v>
+        <v>164.1585617237782</v>
       </c>
       <c r="L6" t="n">
         <v>122.1984598562864</v>
       </c>
       <c r="M6" t="n">
-        <v>123.047446830095</v>
+        <v>161.5285106728731</v>
       </c>
       <c r="N6" t="n">
-        <v>111.7499598249992</v>
+        <v>142.3059096569611</v>
       </c>
       <c r="O6" t="n">
         <v>163.1546825303321</v>
       </c>
       <c r="P6" t="n">
-        <v>158.0709840006057</v>
+        <v>119.5899201578276</v>
       </c>
       <c r="Q6" t="n">
-        <v>168.8471891366353</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720738</v>
+        <v>49.16448762095857</v>
       </c>
       <c r="K8" t="n">
-        <v>22.43379383386409</v>
+        <v>197.7656001854793</v>
       </c>
       <c r="L8" t="n">
-        <v>165.8884044070597</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>119.1204890285667</v>
+        <v>116.3073560554242</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>127.4868140471614</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>143.6230976987799</v>
       </c>
       <c r="P8" t="n">
-        <v>7.786846588833356</v>
+        <v>7.786846588833811</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599047</v>
+        <v>54.50693749366744</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>48.28995823576876</v>
+        <v>48.28995823576894</v>
       </c>
       <c r="K9" t="n">
-        <v>178.9227690890135</v>
+        <v>3.590962737398655</v>
       </c>
       <c r="L9" t="n">
-        <v>68.21467282188637</v>
+        <v>133.3698532931067</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>14.83996115755737</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>120.1203645525743</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>150.548106521879</v>
       </c>
       <c r="Q9" t="n">
-        <v>209.1879900744755</v>
+        <v>33.85618372286065</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8708,7 +8708,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8945,7 +8945,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9401,7 +9401,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9650,7 +9650,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9878,7 +9878,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>-3.123726363357594e-12</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10352,7 +10352,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10595,7 +10595,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -10823,7 +10823,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>-4.515143862578006e-13</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11069,7 +11069,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>-4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -23264,13 +23264,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>10.32607348286541</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23504,7 +23504,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23701,10 +23701,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>22.63678056686646</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>63.36835372228748</v>
       </c>
     </row>
     <row r="17">
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>45.44677382459308</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>79.42624789262625</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>138.4949402405078</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>124.5310997715155</v>
       </c>
       <c r="D25" t="n">
-        <v>65.54986409393068</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>65.54986409393068</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>124.5310997715154</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>57.22910392193899</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.433962646569</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856539</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24901,10 +24901,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>65.31997266427226</v>
       </c>
     </row>
     <row r="32">
@@ -25072,16 +25072,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>44.73700564187206</v>
       </c>
     </row>
     <row r="35">
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>57.22910392194228</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25403,7 +25403,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.433962646569</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229311</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392193904</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856539</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>203.6630665685114</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25688,7 +25688,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.433962646569</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229311</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392193953</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856541</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25877,10 +25877,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H44" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26029,19 +26029,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>28.95742156328143</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194217</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>774108.5972856537</v>
+        <v>774108.5972856536</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>774108.5972856537</v>
+        <v>774108.5972856536</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>774108.5972856538</v>
+        <v>774108.5972856536</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>774108.5972856538</v>
+        <v>774108.5972856536</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>774108.5972856537</v>
+        <v>774108.5972856536</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>774108.5972856536</v>
+        <v>774108.5972856537</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>774108.5972856537</v>
+        <v>774108.5972856536</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>774108.5972856537</v>
+        <v>774108.5972856536</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>774108.5972856535</v>
+        <v>774108.5972856536</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>656833.4158914265</v>
+      </c>
+      <c r="C2" t="n">
         <v>656833.4158914264</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>656833.4158914265</v>
       </c>
-      <c r="D2" t="n">
-        <v>656833.4158914268</v>
-      </c>
       <c r="E2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="F2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.2797520052</v>
       </c>
       <c r="G2" t="n">
         <v>645717.2797520049</v>
       </c>
       <c r="H2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="I2" t="n">
         <v>645717.2797520051</v>
       </c>
-      <c r="I2" t="n">
-        <v>645717.2797520047</v>
-      </c>
       <c r="J2" t="n">
+        <v>645717.2797520051</v>
+      </c>
+      <c r="K2" t="n">
         <v>645717.2797520049</v>
       </c>
-      <c r="K2" t="n">
-        <v>645717.2797520054</v>
-      </c>
       <c r="L2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="M2" t="n">
+        <v>645717.279752005</v>
+      </c>
+      <c r="N2" t="n">
+        <v>645717.279752005</v>
+      </c>
+      <c r="O2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="P2" t="n">
         <v>645717.2797520051</v>
-      </c>
-      <c r="N2" t="n">
-        <v>645717.2797520049</v>
-      </c>
-      <c r="O2" t="n">
-        <v>645717.2797520047</v>
-      </c>
-      <c r="P2" t="n">
-        <v>645717.2797520045</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26369,10 @@
         <v>12401.51063995663</v>
       </c>
       <c r="D3" t="n">
-        <v>343539.4026003667</v>
+        <v>343539.402600366</v>
       </c>
       <c r="E3" t="n">
-        <v>1086298.016192724</v>
+        <v>1086298.016192725</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>8880.174459335547</v>
       </c>
       <c r="K3" t="n">
-        <v>1168.747045490981</v>
+        <v>1168.747045491112</v>
       </c>
       <c r="L3" t="n">
-        <v>34635.69127230426</v>
+        <v>34635.69127230407</v>
       </c>
       <c r="M3" t="n">
-        <v>248550.2087575369</v>
+        <v>248550.208757537</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,40 +26421,40 @@
         <v>397057.3584744651</v>
       </c>
       <c r="D4" t="n">
-        <v>305665.7657712355</v>
+        <v>305665.7657712356</v>
       </c>
       <c r="E4" t="n">
-        <v>8117.312426731975</v>
+        <v>8117.312426731977</v>
       </c>
       <c r="F4" t="n">
-        <v>8117.312426731976</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="G4" t="n">
+        <v>8117.312426731984</v>
+      </c>
+      <c r="H4" t="n">
         <v>8117.312426731974</v>
       </c>
-      <c r="H4" t="n">
-        <v>8117.31242673201</v>
-      </c>
       <c r="I4" t="n">
-        <v>8117.312426731994</v>
+        <v>8117.312426731995</v>
       </c>
       <c r="J4" t="n">
-        <v>8117.312426731984</v>
+        <v>8117.312426731987</v>
       </c>
       <c r="K4" t="n">
-        <v>8117.312426732137</v>
+        <v>8117.312426731954</v>
       </c>
       <c r="L4" t="n">
-        <v>8117.312426732056</v>
+        <v>8117.312426731987</v>
       </c>
       <c r="M4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731982</v>
       </c>
       <c r="N4" t="n">
-        <v>8117.312426732146</v>
+        <v>8117.312426731989</v>
       </c>
       <c r="O4" t="n">
-        <v>8117.312426732088</v>
+        <v>8117.312426731983</v>
       </c>
       <c r="P4" t="n">
         <v>8117.312426731974</v>
@@ -26473,7 +26473,7 @@
         <v>36730.71216531784</v>
       </c>
       <c r="D5" t="n">
-        <v>52713.93566685964</v>
+        <v>52713.9356668596</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>186829.7041525767</v>
+        <v>186829.7041525768</v>
       </c>
       <c r="C6" t="n">
-        <v>210643.8346116869</v>
+        <v>210643.8346116868</v>
       </c>
       <c r="D6" t="n">
-        <v>-45085.68814703498</v>
+        <v>-45085.68814703471</v>
       </c>
       <c r="E6" t="n">
-        <v>-549820.5786913586</v>
+        <v>-549855.3166167948</v>
       </c>
       <c r="F6" t="n">
-        <v>536477.437501366</v>
+        <v>536442.6995759306</v>
       </c>
       <c r="G6" t="n">
-        <v>536477.4375013659</v>
+        <v>536442.6995759301</v>
       </c>
       <c r="H6" t="n">
-        <v>536477.437501366</v>
+        <v>536442.6995759303</v>
       </c>
       <c r="I6" t="n">
-        <v>536477.4375013656</v>
+        <v>536442.6995759304</v>
       </c>
       <c r="J6" t="n">
-        <v>527597.2630420303</v>
+        <v>527562.5251165949</v>
       </c>
       <c r="K6" t="n">
-        <v>535308.6904558751</v>
+        <v>535273.9525304391</v>
       </c>
       <c r="L6" t="n">
-        <v>501841.7462290614</v>
+        <v>501807.0083036262</v>
       </c>
       <c r="M6" t="n">
-        <v>287927.2287438291</v>
+        <v>287892.4908183932</v>
       </c>
       <c r="N6" t="n">
-        <v>536477.4375013657</v>
+        <v>536442.6995759303</v>
       </c>
       <c r="O6" t="n">
-        <v>536477.4375013656</v>
+        <v>536442.6995759301</v>
       </c>
       <c r="P6" t="n">
-        <v>536477.4375013656</v>
+        <v>536442.6995759305</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26710,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26741,7 +26741,7 @@
         <v>35.02126071912533</v>
       </c>
       <c r="D3" t="n">
-        <v>386.5211853523596</v>
+        <v>386.5211853523588</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26793,7 +26793,7 @@
         <v>38.48106384277808</v>
       </c>
       <c r="D4" t="n">
-        <v>175.3318063516151</v>
+        <v>175.3318063516148</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26805,7 +26805,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26814,7 +26814,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099647</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>12.007878032336</v>
       </c>
       <c r="D3" t="n">
-        <v>351.4999246332343</v>
+        <v>351.4999246332335</v>
       </c>
       <c r="E3" t="n">
-        <v>981.4543149893143</v>
+        <v>981.454314989315</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>4.541151368822746</v>
       </c>
       <c r="D4" t="n">
-        <v>136.850742508837</v>
+        <v>136.8507425088368</v>
       </c>
       <c r="E4" t="n">
-        <v>997.3764817480333</v>
+        <v>997.3764817480335</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27036,10 +27036,10 @@
         <v>33.93991247395525</v>
       </c>
       <c r="K4" t="n">
-        <v>4.541151368821602</v>
+        <v>4.541151368822511</v>
       </c>
       <c r="L4" t="n">
-        <v>136.850742508838</v>
+        <v>136.850742508837</v>
       </c>
       <c r="M4" t="n">
         <v>997.3764817480335</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27261,10 +27261,10 @@
         <v>4.541151368822746</v>
       </c>
       <c r="L4" t="n">
-        <v>136.850742508837</v>
+        <v>136.8507425088368</v>
       </c>
       <c r="M4" t="n">
-        <v>997.3764817480333</v>
+        <v>997.3764817480335</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27391,16 +27391,16 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>396.2890922913352</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>338.5273214908784</v>
       </c>
       <c r="I2" t="n">
-        <v>172.9692497154156</v>
+        <v>206.909162189371</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.097100052852174</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27430,13 +27430,13 @@
         <v>206.9118586999128</v>
       </c>
       <c r="T2" t="n">
-        <v>222.6908602868995</v>
+        <v>214.8828525253825</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3382516189322</v>
+        <v>217.3983391449769</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>293.8123459961796</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>352.2980261820983</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27458,10 +27458,10 @@
         <v>132.593271175912</v>
       </c>
       <c r="C3" t="n">
-        <v>138.7685865143604</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>117.5507906575789</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27503,10 +27503,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>97.08446202703757</v>
+        <v>67.19018711997774</v>
       </c>
       <c r="S3" t="n">
-        <v>170.7637213332854</v>
+        <v>136.8238088593301</v>
       </c>
       <c r="T3" t="n">
         <v>199.9652070090748</v>
@@ -27555,13 +27555,13 @@
         <v>161.8582038473137</v>
       </c>
       <c r="I4" t="n">
-        <v>120.2625580282554</v>
+        <v>154.2024705022108</v>
       </c>
       <c r="J4" t="n">
-        <v>56.48524998443612</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>17.44799951871617</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27579,13 +27579,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>70.24074707764554</v>
+        <v>52.79274755892936</v>
       </c>
       <c r="R4" t="n">
-        <v>175.4274210366964</v>
+        <v>141.487508562741</v>
       </c>
       <c r="S4" t="n">
-        <v>223.2933741908973</v>
+        <v>189.3534617169419</v>
       </c>
       <c r="T4" t="n">
         <v>227.7682732010226</v>
@@ -27594,7 +27594,7 @@
         <v>286.3167657450791</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>218.1977308498727</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>184.6447408781395</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27625,7 +27625,7 @@
         <v>343.4493062294837</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>388.1438732363119</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27661,22 +27661,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>102.5442178425012</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S5" t="n">
-        <v>205.8118405263978</v>
+        <v>167.3307766836197</v>
       </c>
       <c r="T5" t="n">
-        <v>210.6234190062806</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U5" t="n">
         <v>251.3343897888113</v>
       </c>
       <c r="V5" t="n">
-        <v>289.2711946273568</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>310.7599048746349</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27695,7 +27695,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>138.8143779555968</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -27713,7 +27713,7 @@
         <v>111.5079271034444</v>
       </c>
       <c r="I6" t="n">
-        <v>48.32201337990931</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27746,16 +27746,16 @@
         <v>170.2839726213331</v>
       </c>
       <c r="T6" t="n">
-        <v>199.8611009721718</v>
+        <v>161.3800371293938</v>
       </c>
       <c r="U6" t="n">
         <v>225.9364262421938</v>
       </c>
       <c r="V6" t="n">
-        <v>194.3195233066472</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>217.8008621282007</v>
+        <v>213.2139193181415</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -27777,7 +27777,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>110.1344091754343</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,7 +27786,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>148.9659558783518</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H7" t="n">
         <v>161.6656840978772</v>
@@ -27795,10 +27795,10 @@
         <v>153.551289182031</v>
       </c>
       <c r="J7" t="n">
-        <v>50.4131925917203</v>
+        <v>88.89425643449839</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>42.39276904032837</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R7" t="n">
         <v>174.4537986637794</v>
@@ -27825,22 +27825,22 @@
         <v>222.9160118599466</v>
       </c>
       <c r="T7" t="n">
-        <v>227.6757534850358</v>
+        <v>189.1946896422577</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3155846423218</v>
+        <v>247.8345207995437</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>248.0419344938129</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>184.6905323193758</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>207.4020353118655</v>
+        <v>207.4020353118657</v>
       </c>
       <c r="C8" t="n">
-        <v>189.9410854193924</v>
+        <v>258.9665283169536</v>
       </c>
       <c r="D8" t="n">
-        <v>179.3512352690678</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>242.0159048250602</v>
+        <v>323.5613947208331</v>
       </c>
       <c r="I8" t="n">
-        <v>150.5709327933332</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27913,7 +27913,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>173.9091623657982</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27929,16 +27929,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -27950,7 +27950,7 @@
         <v>104.2060135747427</v>
       </c>
       <c r="I9" t="n">
-        <v>60.77218657767901</v>
+        <v>60.77218657767907</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,19 +27977,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>48.53902377671856</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>120.1447103900029</v>
+        <v>156.240555821128</v>
       </c>
       <c r="T9" t="n">
-        <v>196.8136629463422</v>
+        <v>21.48185659472736</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8866856868212</v>
+        <v>50.55487933520635</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>126.9073558916416</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -27998,7 +27998,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>30.35088942568953</v>
       </c>
     </row>
     <row r="10">
@@ -28032,7 +28032,7 @@
         <v>134.4896211379861</v>
       </c>
       <c r="J10" t="n">
-        <v>44.08089719068425</v>
+        <v>44.08089719068435</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,28 +28053,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>27.79734426348821</v>
       </c>
       <c r="R10" t="n">
-        <v>145.9534932992552</v>
+        <v>145.9534932992553</v>
       </c>
       <c r="S10" t="n">
         <v>211.8696945563088</v>
       </c>
       <c r="T10" t="n">
-        <v>224.9674753772059</v>
+        <v>49.63566902559111</v>
       </c>
       <c r="U10" t="n">
-        <v>159.6461001082286</v>
+        <v>131.8487558447408</v>
       </c>
       <c r="V10" t="n">
-        <v>76.80583697221289</v>
+        <v>76.80583697221317</v>
       </c>
       <c r="W10" t="n">
-        <v>111.1911919849759</v>
+        <v>111.1911919849762</v>
       </c>
       <c r="X10" t="n">
-        <v>50.37784903742204</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -29038,7 +29038,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -29095,7 +29095,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>3.086715251215381e-12</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29797,16 +29797,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>1.157194799753628e-12</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>1.928226773653195e-12</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.553854011466771</v>
+        <v>1.553854011466768</v>
       </c>
       <c r="H8" t="n">
-        <v>15.91340739493407</v>
+        <v>15.91340739493404</v>
       </c>
       <c r="I8" t="n">
-        <v>59.90495677707275</v>
+        <v>59.90495677707263</v>
       </c>
       <c r="J8" t="n">
-        <v>131.881416905728</v>
+        <v>131.8814169057277</v>
       </c>
       <c r="K8" t="n">
-        <v>197.6560572111165</v>
+        <v>197.656057211116</v>
       </c>
       <c r="L8" t="n">
-        <v>245.2098169145427</v>
+        <v>245.2098169145422</v>
       </c>
       <c r="M8" t="n">
-        <v>272.8431681909649</v>
+        <v>272.8431681909643</v>
       </c>
       <c r="N8" t="n">
-        <v>277.2580559010449</v>
+        <v>277.2580559010443</v>
       </c>
       <c r="O8" t="n">
-        <v>261.8069200745222</v>
+        <v>261.8069200745216</v>
       </c>
       <c r="P8" t="n">
-        <v>223.4461491664362</v>
+        <v>223.4461491664357</v>
       </c>
       <c r="Q8" t="n">
-        <v>167.7987523807824</v>
+        <v>167.798752380782</v>
       </c>
       <c r="R8" t="n">
-        <v>97.60728204779966</v>
+        <v>97.60728204779944</v>
       </c>
       <c r="S8" t="n">
-        <v>35.40844828629908</v>
+        <v>35.40844828629901</v>
       </c>
       <c r="T8" t="n">
-        <v>6.801995935195794</v>
+        <v>6.80199593519578</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1243083209173417</v>
+        <v>0.1243083209173414</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8313851911352641</v>
+        <v>0.8313851911352624</v>
       </c>
       <c r="H9" t="n">
-        <v>8.029430661753736</v>
+        <v>8.02943066175372</v>
       </c>
       <c r="I9" t="n">
-        <v>28.62444627373607</v>
+        <v>28.62444627373601</v>
       </c>
       <c r="J9" t="n">
-        <v>78.54766843089793</v>
+        <v>78.54766843089776</v>
       </c>
       <c r="K9" t="n">
-        <v>134.2504762369606</v>
+        <v>134.2504762369603</v>
       </c>
       <c r="L9" t="n">
-        <v>180.5163328383827</v>
+        <v>180.5163328383823</v>
       </c>
       <c r="M9" t="n">
-        <v>210.654046017036</v>
+        <v>210.6540460170355</v>
       </c>
       <c r="N9" t="n">
-        <v>216.22943179443</v>
+        <v>216.2294317944295</v>
       </c>
       <c r="O9" t="n">
-        <v>197.8076862434854</v>
+        <v>197.807686243485</v>
       </c>
       <c r="P9" t="n">
-        <v>158.7581072440664</v>
+        <v>158.7581072440661</v>
       </c>
       <c r="Q9" t="n">
-        <v>106.1255903631611</v>
+        <v>106.1255903631609</v>
       </c>
       <c r="R9" t="n">
-        <v>51.61881037592457</v>
+        <v>51.61881037592447</v>
       </c>
       <c r="S9" t="n">
-        <v>15.44261528270983</v>
+        <v>15.4426152827098</v>
       </c>
       <c r="T9" t="n">
-        <v>3.351065748479419</v>
+        <v>3.351065748479412</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05469639415363582</v>
+        <v>0.0546963941536357</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.697005416209173</v>
+        <v>0.6970054162091716</v>
       </c>
       <c r="H10" t="n">
-        <v>6.197011791387015</v>
+        <v>6.197011791387003</v>
       </c>
       <c r="I10" t="n">
-        <v>20.96085378927223</v>
+        <v>20.96085378927219</v>
       </c>
       <c r="J10" t="n">
-        <v>49.27828292598853</v>
+        <v>49.27828292598843</v>
       </c>
       <c r="K10" t="n">
-        <v>80.97935653775663</v>
+        <v>80.97935653775646</v>
       </c>
       <c r="L10" t="n">
-        <v>103.6256961516802</v>
+        <v>103.6256961516799</v>
       </c>
       <c r="M10" t="n">
-        <v>109.2587671972252</v>
+        <v>109.2587671972249</v>
       </c>
       <c r="N10" t="n">
-        <v>106.6608379186274</v>
+        <v>106.6608379186272</v>
       </c>
       <c r="O10" t="n">
-        <v>98.51854737472932</v>
+        <v>98.51854737472912</v>
       </c>
       <c r="P10" t="n">
-        <v>84.29963688406212</v>
+        <v>84.29963688406195</v>
       </c>
       <c r="Q10" t="n">
-        <v>58.3646989882063</v>
+        <v>58.36469898820618</v>
       </c>
       <c r="R10" t="n">
-        <v>31.33989807791426</v>
+        <v>31.3398980779142</v>
       </c>
       <c r="S10" t="n">
-        <v>12.14690348066349</v>
+        <v>12.14690348066347</v>
       </c>
       <c r="T10" t="n">
-        <v>2.978114051075557</v>
+        <v>2.978114051075551</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03801847724777312</v>
+        <v>0.03801847724777304</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>399.9031616963282</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,13 +32075,13 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32090,16 +32090,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>200.3460366764704</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32315,7 +32315,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>146.0225991093089</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32330,10 +32330,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>468.3778278510275</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32555,19 +32555,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>240.4469701760391</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>626.4629682828348</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
@@ -32783,19 +32783,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>504.7812948344583</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32807,7 +32807,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>167.1165249313368</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33020,19 +33020,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>244.0266243181833</v>
+        <v>318.3985571819322</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33044,7 +33044,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
@@ -33260,16 +33260,16 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>391.605194951448</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33278,13 +33278,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>332.9841464938405</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33497,22 +33497,22 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>640.7275049411307</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
@@ -33731,13 +33731,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>138.5543797798742</v>
@@ -33752,13 +33752,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>332.9841464938405</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>364.3208035245835</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33971,19 +33971,19 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>754.000239683233</v>
+        <v>641.2555750770852</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -33992,10 +33992,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34120,37 +34120,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34159,10 +34159,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34208,37 +34208,37 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.267838362267</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071783</v>
+        <v>322.6999460717714</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437242</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34284,28 +34284,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34314,7 +34314,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34357,37 +34357,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34396,10 +34396,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34442,40 +34442,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.267838362267</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071783</v>
+        <v>191.332301678856</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34521,28 +34521,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34551,7 +34551,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34702,19 +34702,19 @@
         <v>33.93991247395533</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>33.93991247395533</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
+        <v>32.56860287904804</v>
+      </c>
+      <c r="P2" t="n">
         <v>33.93991247395533</v>
-      </c>
-      <c r="N2" t="n">
-        <v>32.56860287904804</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34775,16 +34775,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>3.930118828988642</v>
       </c>
       <c r="K3" t="n">
+        <v>28.63848405005938</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>33.93991247395533</v>
-      </c>
-      <c r="L3" t="n">
-        <v>33.93991247395533</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -34796,7 +34796,7 @@
         <v>33.93991247395533</v>
       </c>
       <c r="Q3" t="n">
-        <v>32.56860287904804</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,25 +34936,25 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>31.71334579105918</v>
+      </c>
+      <c r="M5" t="n">
         <v>38.48106384277808</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>38.48106384277808</v>
       </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
       <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
         <v>38.48106384277808</v>
       </c>
-      <c r="P5" t="n">
-        <v>36.92627338448403</v>
-      </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>5.212927593424824</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>6.370323552522133</v>
       </c>
       <c r="K6" t="n">
-        <v>36.92627338448402</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>30.55594983196189</v>
       </c>
       <c r="O6" t="n">
         <v>38.48106384277808</v>
       </c>
       <c r="P6" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>119.9321275511155</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>175.3318063516148</v>
       </c>
       <c r="L8" t="n">
-        <v>175.3318063516151</v>
+        <v>9.44340194455495</v>
       </c>
       <c r="M8" t="n">
-        <v>161.6174239922588</v>
+        <v>158.8042910191158</v>
       </c>
       <c r="N8" t="n">
-        <v>47.84499230445397</v>
+        <v>175.3318063516148</v>
       </c>
       <c r="O8" t="n">
-        <v>31.70870865283544</v>
+        <v>175.3318063516148</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>157.8080531662376</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,25 +35252,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>175.3318063516151</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>110.1766258803949</v>
+        <v>175.3318063516148</v>
       </c>
       <c r="M9" t="n">
-        <v>68.52001209501765</v>
+        <v>83.35997325257459</v>
       </c>
       <c r="N9" t="n">
-        <v>84.88771971109665</v>
+        <v>84.8877197110962</v>
       </c>
       <c r="O9" t="n">
-        <v>55.21144179904095</v>
+        <v>175.3318063516148</v>
       </c>
       <c r="P9" t="n">
-        <v>24.78369982973612</v>
+        <v>175.3318063516148</v>
       </c>
       <c r="Q9" t="n">
-        <v>175.3318063516151</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>58.70986471187378</v>
+        <v>58.70986471187361</v>
       </c>
       <c r="L10" t="n">
-        <v>131.2157214119963</v>
+        <v>131.2157214119961</v>
       </c>
       <c r="M10" t="n">
-        <v>148.8426441590657</v>
+        <v>148.8426441590655</v>
       </c>
       <c r="N10" t="n">
-        <v>150.793010297856</v>
+        <v>150.7930102978558</v>
       </c>
       <c r="O10" t="n">
-        <v>123.103675288769</v>
+        <v>123.1036752887688</v>
       </c>
       <c r="P10" t="n">
-        <v>81.57819614895561</v>
+        <v>81.57819614895544</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>261.348781916454</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35665,7 +35665,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35738,16 +35738,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>57.74979223202591</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35905,7 +35905,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>8.181160134949948</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35978,10 +35978,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>334.4034204366973</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36121,7 +36121,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367785</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
@@ -36203,19 +36203,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>101.8925903961649</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>483.8667238383904</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
@@ -36370,7 +36370,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
@@ -36431,19 +36431,19 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>362.64726091244</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36455,7 +36455,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>27.13475084531527</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36598,7 +36598,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M26" t="n">
         <v>735.3001107902948</v>
@@ -36616,7 +36616,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,19 +36668,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>101.892590396165</v>
+        <v>176.2645232599139</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36692,7 +36692,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>37.00975247789211</v>
@@ -36829,7 +36829,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039638</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
         <v>479.454324036777</v>
@@ -36850,7 +36850,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36908,16 +36908,16 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36926,13 +36926,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>199.0097390795103</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295349</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,7 +37072,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M32" t="n">
         <v>735.3001107902948</v>
@@ -37145,22 +37145,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402482</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>498.1312604966863</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
@@ -37315,7 +37315,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O35" t="n">
         <v>696.488651224316</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37400,13 +37400,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>199.0097390795103</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>224.339029438562</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37543,7 +37543,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37564,7 +37564,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.866084390239</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,19 +37619,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>622.6585275998997</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37640,10 +37640,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295349</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402486</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.937336923845</v>
+        <v>191.358233988438</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992797</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,19 +37935,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295346</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
         <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
         <v>373.2618997060454</v>
@@ -37956,7 +37956,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,31 +38011,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402486</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.937336923845</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
         <v>264.3325884096349</v>
@@ -38181,19 +38181,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
